--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T22:32:51+01:00</t>
+    <t>2023-04-30T22:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:11:32+02:00</t>
+    <t>2023-05-04T21:41:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,46 +141,13 @@
     <t>proposed</t>
   </si>
   <si>
-    <t>Proposed</t>
-  </si>
-  <si>
-    <t>The care team has been drafted and proposed, but not yet participating in the coordination and delivery of care.</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>The care team is currently participating in the coordination and delivery of care.</t>
-  </si>
-  <si>
     <t>suspended</t>
   </si>
   <si>
-    <t>Suspended</t>
-  </si>
-  <si>
-    <t>The care team is temporarily on hold or suspended and not participating in the coordination and delivery of care.</t>
-  </si>
-  <si>
     <t>inactive</t>
   </si>
   <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>The care team was, but is no longer, participating in the coordination and delivery of care.</t>
-  </si>
-  <si>
     <t>entered-in-error</t>
-  </si>
-  <si>
-    <t>Entered In Error</t>
-  </si>
-  <si>
-    <t>The care team should have never existed.</t>
   </si>
 </sst>
 </file>
@@ -518,68 +485,48 @@
       <c r="B2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>55</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:41:07+02:00</t>
+    <t>2023-05-05T01:43:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T01:43:00+02:00</t>
+    <t>2023-12-01T14:04:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,10 +269,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T14:04:08+01:00</t>
+    <t>2024-01-08T21:51:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,97 +48,100 @@
     <t>Status</t>
   </si>
   <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2024-12-11T09:54:35+01:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Denmark</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Indicates the status of the care team.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Compositional</t>
+  </si>
+  <si>
+    <t>Version Needed?</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>Supplements</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/care-team-status</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
     <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2024-05-06T15:28:33+02:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Denmark</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Indicates the status of the care team.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>Hierarchy</t>
-  </si>
-  <si>
-    <t>Compositional</t>
-  </si>
-  <si>
-    <t>Version Needed?</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>supplement</t>
-  </si>
-  <si>
-    <t>Supplements</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/care-team-status</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>proposed</t>
   </si>
   <si>
     <t>suspended</t>
@@ -493,7 +496,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -503,7 +506,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -513,7 +516,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -523,7 +526,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>proposed</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>suspended</t>
@@ -496,7 +493,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -506,7 +503,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -516,7 +513,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -526,7 +523,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
